--- a/templates/schedule_julmaten.xlsx
+++ b/templates/schedule_julmaten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atw10wp4\JupyterLab\Kyrkan\WebShopReport\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\at1kaul\Documents\Mina Saker\Temp-Server\Julmaten\2024\Input Fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCD2A37-B2FC-4C4B-BC9D-A5355B41691C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFBCAA8-7E06-4FB0-A902-8A57184EE8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29730" yWindow="645" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="3" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,322 +391,322 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B2" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B3" s="1">
-        <v>0.47222222222222221</v>
+        <v>0.68055555555555547</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B4" s="1">
-        <v>0.4861111111111111</v>
+        <v>0.69444444444444431</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>0.70833333333333315</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B6" s="1">
-        <v>0.51388888888888884</v>
+        <v>0.72222222222222199</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B7" s="1">
-        <v>0.52777777777777768</v>
+        <v>0.73611111111111083</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B8" s="1">
-        <v>0.54166666666666652</v>
+        <v>0.74999999999999967</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B9" s="1">
-        <v>0.55555555555555536</v>
+        <v>0.76388888888888851</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45276</v>
+        <v>45646</v>
       </c>
       <c r="B10" s="1">
-        <v>0.5694444444444442</v>
+        <v>0.77777777777777735</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B11" s="1">
-        <v>0.58333333333333304</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B12" s="1">
-        <v>0.59722222222222188</v>
+        <v>0.47222222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B13" s="1">
-        <v>0.61111111111111072</v>
+        <v>0.4861111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B14" s="1">
-        <v>0.62499999999999956</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B15" s="1">
-        <v>0.6388888888888884</v>
+        <v>0.51388888888888884</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B16" s="1">
-        <v>0.65277777777777724</v>
+        <v>0.52777777777777768</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B17" s="1">
-        <v>0.66666666666666607</v>
+        <v>0.54166666666666652</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B18" s="1">
-        <v>0.68055555555555491</v>
+        <v>0.55555555555555536</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45276</v>
+        <v>45647</v>
       </c>
       <c r="B19" s="1">
-        <v>0.69444444444444375</v>
+        <v>0.5694444444444442</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B20" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.58333333333333304</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B21" s="1">
-        <v>0.55555555555555547</v>
+        <v>0.59722222222222188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B22" s="1">
-        <v>0.56944444444444431</v>
+        <v>0.61111111111111072</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B23" s="1">
-        <v>0.58333333333333315</v>
+        <v>0.62499999999999956</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B24" s="1">
-        <v>0.59722222222222199</v>
+        <v>0.6388888888888884</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B25" s="1">
-        <v>0.61111111111111083</v>
+        <v>0.65277777777777724</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B26" s="1">
-        <v>0.62499999999999967</v>
+        <v>0.66666666666666607</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B27" s="1">
-        <v>0.63888888888888851</v>
+        <v>0.68055555555555491</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45277</v>
+        <v>45647</v>
       </c>
       <c r="B28" s="1">
-        <v>0.65277777777777735</v>
+        <v>0.69444444444444375</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45277</v>
+        <v>45648</v>
       </c>
       <c r="B29" s="1">
-        <v>0.66666666666666619</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45277</v>
+        <v>45648</v>
       </c>
       <c r="B30" s="1">
-        <v>0.68055555555555503</v>
+        <v>0.55555555555555547</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45277</v>
+        <v>45648</v>
       </c>
       <c r="B31" s="1">
-        <v>0.69444444444444386</v>
+        <v>0.56944444444444431</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B32" s="1">
-        <v>0.625</v>
+        <v>0.58333333333333315</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B33" s="1">
-        <v>0.63888888888888884</v>
+        <v>0.59722222222222199</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B34" s="1">
-        <v>0.65277777777777768</v>
+        <v>0.61111111111111083</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B35" s="1">
-        <v>0.66666666666666652</v>
+        <v>0.62499999999999967</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B36" s="1">
-        <v>0.68055555555555536</v>
+        <v>0.63888888888888851</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B37" s="1">
-        <v>0.6944444444444442</v>
+        <v>0.65277777777777735</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B38" s="1">
-        <v>0.70833333333333304</v>
+        <v>0.66666666666666619</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B39" s="1">
-        <v>0.72222222222222188</v>
+        <v>0.68055555555555503</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45278</v>
+        <v>45648</v>
       </c>
       <c r="B40" s="1">
-        <v>0.73611111111111072</v>
+        <v>0.69444444444444386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45284</v>
+        <v>45650</v>
       </c>
       <c r="B41" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
